--- a/out_there/alukset.xlsx
+++ b/out_there/alukset.xlsx
@@ -648,10 +648,10 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>

--- a/out_there/alukset.xlsx
+++ b/out_there/alukset.xlsx
@@ -102,9 +102,6 @@
     <t>3 synthmorfia, nanofabrikaattori, kvanttikryptoavaimia</t>
   </si>
   <si>
-    <t>Simulaatiotietokone</t>
-  </si>
-  <si>
     <t>Funktio</t>
   </si>
   <si>
@@ -184,6 +181,9 @@
   </si>
   <si>
     <t>sillan tietotekniikka, ml. viestintä</t>
+  </si>
+  <si>
+    <t>Simulaatiotietokone, 3 synthmorfia</t>
   </si>
 </sst>
 </file>
@@ -648,10 +648,10 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
@@ -677,19 +677,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>10</v>
@@ -704,13 +704,13 @@
         <v>7</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>14</v>
@@ -730,13 +730,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1">
         <v>10000</v>
@@ -767,7 +767,7 @@
         <v>18</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -775,13 +775,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1">
         <v>2500</v>
@@ -818,7 +818,7 @@
         <v>19</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -826,13 +826,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1">
         <v>20000</v>
@@ -877,19 +877,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1">
         <v>8000</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="1">
         <v>190</v>
@@ -915,7 +915,7 @@
         <v>0.02</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -923,13 +923,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="1">
         <v>5000</v>
@@ -968,13 +968,13 @@
         <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -982,13 +982,13 @@
         <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/out_there/alukset.xlsx
+++ b/out_there/alukset.xlsx
@@ -251,8 +251,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -291,7 +293,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -304,6 +306,7 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -316,6 +319,7 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -648,10 +652,10 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
@@ -757,6 +761,10 @@
       <c r="J2" s="1">
         <v>86</v>
       </c>
+      <c r="K2" s="1">
+        <f>26*150000000/((I2-10)/2)/3600/24</f>
+        <v>-56442.282145324039</v>
+      </c>
       <c r="L2" s="1">
         <v>300</v>
       </c>
@@ -802,6 +810,10 @@
       <c r="J3" s="1">
         <v>0</v>
       </c>
+      <c r="K3" s="1">
+        <f>26*150000000/((I3-10)/2)/3600/24</f>
+        <v>-9027.7777777777774</v>
+      </c>
       <c r="L3" s="1">
         <v>600</v>
       </c>
@@ -853,6 +865,10 @@
       <c r="J4" s="1">
         <v>7900</v>
       </c>
+      <c r="K4" s="1">
+        <f>26*150000000/((I4-10)/2)/3600/24</f>
+        <v>285.17529388448713</v>
+      </c>
       <c r="L4" s="1" t="s">
         <v>13</v>
       </c>
@@ -949,6 +965,10 @@
       </c>
       <c r="J6" s="1">
         <v>400</v>
+      </c>
+      <c r="K6" s="1">
+        <f>26*150000000/((I6-10)/2)/3600/24</f>
+        <v>1378.3123275089383</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>12</v>
